--- a/project-task-6/Task6_BE_Services.xlsx
+++ b/project-task-6/Task6_BE_Services.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polparracatalan/Desktop/FCUL/2nd_SEMESTER/WEB_APPLICATIONS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA9619-2B67-6F4C-BF14-5AC6F553FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C498E120-F964-47CC-BDD9-02198FA0B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{477374E4-32E2-DB43-8F0E-0A19EE617A00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{477374E4-32E2-DB43-8F0E-0A19EE617A00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">BE services </t>
   </si>
@@ -48,33 +37,9 @@
     <t xml:space="preserve">Resource description </t>
   </si>
   <si>
-    <t>Fetch news</t>
-  </si>
-  <si>
-    <t>Manges and displays all the news</t>
-  </si>
-  <si>
-    <t>Supermarket and Product Catalog Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manages the list of supermarkets and view a list of available products with different filters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This service uses a database of supermarkets which includes their locations, product lists, prices, and sustainability indexes. </t>
-  </si>
-  <si>
     <t>News database that stores the news, including its title, description, topic and source</t>
   </si>
   <si>
-    <t>Product Review and Feedback Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enables  customers to post reviews and ratings for specific meat products they have purchased. It allows users to submit text feedback and a star rating. </t>
-  </si>
-  <si>
-    <t>Backend service interacts with a database that stores product information, user profiles, and review data. Each review entry should include a unique identifier for the product,</t>
-  </si>
-  <si>
     <t>Business Capabilities</t>
   </si>
   <si>
@@ -97,6 +62,93 @@
   </si>
   <si>
     <t>&lt;&lt;service&gt;&gt;  News Management Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Authentication </t>
+  </si>
+  <si>
+    <t>List of user and associated password</t>
+  </si>
+  <si>
+    <t>Handles the client access to the application</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Manges all the news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages the list of supermarkets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses a list of all the supermarkets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Catalog Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages the list of list of available products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses a list of products </t>
+  </si>
+  <si>
+    <t>Product prices</t>
+  </si>
+  <si>
+    <t>Manages the list of prices of each product</t>
+  </si>
+  <si>
+    <t>List of prices for each product</t>
+  </si>
+  <si>
+    <t>Product Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages customers reviews </t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manages all the information of the statistics </t>
+  </si>
+  <si>
+    <t>List with customers reviews and ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Information </t>
+  </si>
+  <si>
+    <t>Manages the client information and photo</t>
+  </si>
+  <si>
+    <t>List with client information and photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List with statistics </t>
+  </si>
+  <si>
+    <t>Product Specific Information</t>
+  </si>
+  <si>
+    <t>Manages the specific information about a product</t>
+  </si>
+  <si>
+    <t>List of information about specific products</t>
+  </si>
+  <si>
+    <t>QRreader</t>
+  </si>
+  <si>
+    <t>Manages the access to product information</t>
+  </si>
+  <si>
+    <t>List with the products and associated QRcode</t>
   </si>
 </sst>
 </file>
@@ -126,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -135,13 +187,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -150,7 +202,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -168,7 +220,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -180,13 +232,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -195,10 +247,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -210,21 +262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -286,7 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -296,14 +333,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -312,67 +351,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,108 +759,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E4093F-1FED-D54A-8CA0-61F60768FD57}">
-  <dimension ref="B5:H10"/>
+  <dimension ref="B5:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="17" thickBot="1"/>
-    <row r="6" spans="2:8" ht="18" customHeight="1">
-      <c r="B6" s="3" t="s">
+    <row r="5" spans="2:6" ht="16.5" thickBot="1"/>
+    <row r="6" spans="2:6" ht="18" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.5" thickBot="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" ht="38" customHeight="1" thickBot="1">
+      <c r="B8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:6" ht="38" customHeight="1" thickBot="1">
+      <c r="B9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:6" ht="32.5" thickBot="1">
+      <c r="B13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="C14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="17" thickBot="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="38" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="68">
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="69" thickBot="1">
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>17</v>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" thickBot="1">
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4CE09-B180-451F-B62C-DE37D151A228}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" ht="80">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="112">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="128.5" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>